--- a/excels/rank_50.xlsx
+++ b/excels/rank_50.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27960" windowHeight="12600" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27960" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="graph" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="137">
   <si>
     <t>maze</t>
   </si>
@@ -561,11 +561,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
@@ -989,19 +990,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R87"/>
+  <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="M74" sqref="M74:R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="14.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="3.75" style="2" customWidth="1"/>
     <col min="8" max="12" width="14.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="3.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.875" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="14.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1039,6 +1044,9 @@
       <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
       <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1089,6 +1097,9 @@
       <c r="L2" s="2">
         <v>910052.38542294502</v>
       </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
       <c r="N2" s="2">
         <v>371712.563499927</v>
       </c>
@@ -1139,6 +1150,9 @@
       <c r="L3" s="2">
         <v>94281.805874586105</v>
       </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
       <c r="N3" s="2">
         <v>494479.52891588199</v>
       </c>
@@ -1189,6 +1203,9 @@
       <c r="L4" s="2">
         <v>390270.28109002102</v>
       </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
       <c r="N4" s="2">
         <v>251340.908154726</v>
       </c>
@@ -1239,6 +1256,9 @@
       <c r="L5" s="2">
         <v>756822.07327079703</v>
       </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
       <c r="N5" s="2">
         <v>16895.488384485201</v>
       </c>
@@ -1289,6 +1309,9 @@
       <c r="L6" s="2">
         <v>103071.57473063401</v>
       </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
       <c r="N6" s="2">
         <v>20431.9590246677</v>
       </c>
@@ -1339,6 +1362,9 @@
       <c r="L7" s="2">
         <v>14360200.2504825</v>
       </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
       <c r="N7" s="2">
         <v>14351512.662060199</v>
       </c>
@@ -1389,6 +1415,9 @@
       <c r="L8" s="2">
         <v>14780100.1109361</v>
       </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
       <c r="N8" s="2">
         <v>14446154.1625976</v>
       </c>
@@ -1439,6 +1468,9 @@
       <c r="L9" s="2">
         <v>14533400.199294001</v>
       </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
       <c r="N9" s="2">
         <v>14290532.0422887</v>
       </c>
@@ -1489,6 +1521,9 @@
       <c r="L10" s="2">
         <v>14768400.2567052</v>
       </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
       <c r="N10" s="2">
         <v>14537628.175103599</v>
       </c>
@@ -1539,6 +1574,9 @@
       <c r="L11" s="2">
         <v>259446.78905677699</v>
       </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
       <c r="N11" s="2">
         <v>235810.07440566999</v>
       </c>
@@ -1589,6 +1627,9 @@
       <c r="L12" s="2">
         <v>185321.805862665</v>
       </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
       <c r="N12" s="2">
         <v>129922.625122785</v>
       </c>
@@ -1639,6 +1680,9 @@
       <c r="L13" s="2">
         <v>105983.63570356301</v>
       </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
       <c r="N13" s="2">
         <v>53033.8462846279</v>
       </c>
@@ -1689,6 +1733,9 @@
       <c r="L14" s="2">
         <v>121177.622380018</v>
       </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
       <c r="N14" s="2">
         <v>11532.5953133106</v>
       </c>
@@ -1739,6 +1786,9 @@
       <c r="L15" s="2">
         <v>266257.82084250398</v>
       </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
       <c r="N15" s="2">
         <v>13677.8726794719</v>
       </c>
@@ -1789,6 +1839,9 @@
       <c r="L16" s="2">
         <v>14847400.2001762</v>
       </c>
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
       <c r="N16" s="2">
         <v>14265020.971205199</v>
       </c>
@@ -1839,6 +1892,9 @@
       <c r="L17" s="2">
         <v>14479700.33288</v>
       </c>
+      <c r="M17" t="s">
+        <v>37</v>
+      </c>
       <c r="N17" s="2">
         <v>14126614.959104</v>
       </c>
@@ -1889,6 +1945,9 @@
       <c r="L18" s="2">
         <v>14267900.033426199</v>
       </c>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
       <c r="N18" s="2">
         <v>14687056.659348</v>
       </c>
@@ -1939,6 +1998,9 @@
       <c r="L19" s="2">
         <v>14370200.220394099</v>
       </c>
+      <c r="M19" t="s">
+        <v>39</v>
+      </c>
       <c r="N19" s="2">
         <v>14216754.5088338</v>
       </c>
@@ -1989,6 +2051,9 @@
       <c r="L20" s="2">
         <v>457882.52955245902</v>
       </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
       <c r="N20" s="2">
         <v>194340.81422400399</v>
       </c>
@@ -2039,6 +2104,9 @@
       <c r="L21" s="2">
         <v>437601.20909428498</v>
       </c>
+      <c r="M21" t="s">
+        <v>41</v>
+      </c>
       <c r="N21" s="2">
         <v>488922.42502593901</v>
       </c>
@@ -2089,6 +2157,9 @@
       <c r="L22" s="2">
         <v>135486.436254739</v>
       </c>
+      <c r="M22" t="s">
+        <v>42</v>
+      </c>
       <c r="N22" s="2">
         <v>90162.339507341298</v>
       </c>
@@ -2139,6 +2210,9 @@
       <c r="L23" s="2">
         <v>45897.689001321698</v>
       </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
       <c r="N23" s="2">
         <v>11454.0225012302</v>
       </c>
@@ -2189,6 +2263,9 @@
       <c r="L24" s="2">
         <v>358988.48952007201</v>
       </c>
+      <c r="M24" t="s">
+        <v>44</v>
+      </c>
       <c r="N24" s="2">
         <v>10132.2730350494</v>
       </c>
@@ -2239,6 +2316,9 @@
       <c r="L25" s="2">
         <v>14489900.1225233</v>
       </c>
+      <c r="M25" t="s">
+        <v>45</v>
+      </c>
       <c r="N25" s="2">
         <v>14964472.3647069</v>
       </c>
@@ -2289,6 +2369,9 @@
       <c r="L26" s="2">
         <v>14606900.220394099</v>
       </c>
+      <c r="M26" t="s">
+        <v>46</v>
+      </c>
       <c r="N26" s="2">
         <v>14130942.184483999</v>
       </c>
@@ -2339,6 +2422,9 @@
       <c r="L27" s="2">
         <v>14746900.079298001</v>
       </c>
+      <c r="M27" t="s">
+        <v>47</v>
+      </c>
       <c r="N27" s="2">
         <v>14244932.454600301</v>
       </c>
@@ -2389,6 +2475,9 @@
       <c r="L28" s="2">
         <v>14085841.043813201</v>
       </c>
+      <c r="M28" t="s">
+        <v>48</v>
+      </c>
       <c r="N28" s="2">
         <v>14581740.012526499</v>
       </c>
@@ -2439,6 +2528,9 @@
       <c r="L29" s="2">
         <v>2011033.99966359</v>
       </c>
+      <c r="M29" t="s">
+        <v>49</v>
+      </c>
       <c r="N29" s="2">
         <v>367188.40081810899</v>
       </c>
@@ -2489,6 +2581,9 @@
       <c r="L30" s="2">
         <v>708748.30503702105</v>
       </c>
+      <c r="M30" t="s">
+        <v>50</v>
+      </c>
       <c r="N30" s="2">
         <v>63278.669171571702</v>
       </c>
@@ -2539,6 +2634,9 @@
       <c r="L31" s="2">
         <v>279598.19404053601</v>
       </c>
+      <c r="M31" t="s">
+        <v>51</v>
+      </c>
       <c r="N31" s="2">
         <v>648753.80786108901</v>
       </c>
@@ -2589,6 +2687,9 @@
       <c r="L32" s="2">
         <v>223152.330574035</v>
       </c>
+      <c r="M32" t="s">
+        <v>52</v>
+      </c>
       <c r="N32" s="2">
         <v>23276.907460689501</v>
       </c>
@@ -2639,6 +2740,9 @@
       <c r="L33" s="2">
         <v>51769.530823469097</v>
       </c>
+      <c r="M33" t="s">
+        <v>53</v>
+      </c>
       <c r="N33" s="2">
         <v>13605.1440970897</v>
       </c>
@@ -2689,6 +2793,9 @@
       <c r="L34" s="2">
         <v>14411400.133562</v>
       </c>
+      <c r="M34" t="s">
+        <v>54</v>
+      </c>
       <c r="N34" s="2">
         <v>14058514.4125914</v>
       </c>
@@ -2739,6 +2846,9 @@
       <c r="L35" s="2">
         <v>14257720.581142901</v>
       </c>
+      <c r="M35" t="s">
+        <v>55</v>
+      </c>
       <c r="N35" s="2">
         <v>15083265.818762699</v>
       </c>
@@ -2789,6 +2899,9 @@
       <c r="L36" s="2">
         <v>14472203.001527701</v>
       </c>
+      <c r="M36" t="s">
+        <v>56</v>
+      </c>
       <c r="N36" s="2">
         <v>14206791.095244801</v>
       </c>
@@ -2839,6 +2952,9 @@
       <c r="L37" s="2">
         <v>14709076.1527752</v>
       </c>
+      <c r="M37" t="s">
+        <v>57</v>
+      </c>
       <c r="N37" s="2">
         <v>14476232.596473601</v>
       </c>
@@ -2889,6 +3005,9 @@
       <c r="L38" s="2">
         <v>782762.08612704196</v>
       </c>
+      <c r="M38" t="s">
+        <v>58</v>
+      </c>
       <c r="N38" s="2">
         <v>1347219.05249977</v>
       </c>
@@ -2939,6 +3058,9 @@
       <c r="L39" s="2">
         <v>302554.04521203</v>
       </c>
+      <c r="M39" t="s">
+        <v>59</v>
+      </c>
       <c r="N39" s="2">
         <v>487011.24548697402</v>
       </c>
@@ -2989,6 +3111,9 @@
       <c r="L40" s="2">
         <v>545998.08738279296</v>
       </c>
+      <c r="M40" t="s">
+        <v>60</v>
+      </c>
       <c r="N40" s="2">
         <v>233714.07919573699</v>
       </c>
@@ -3039,6 +3164,9 @@
       <c r="L41" s="2">
         <v>115740.326696872</v>
       </c>
+      <c r="M41" t="s">
+        <v>61</v>
+      </c>
       <c r="N41" s="2">
         <v>38295.128199338898</v>
       </c>
@@ -3089,6 +3217,9 @@
       <c r="L42" s="2">
         <v>202983.411093473</v>
       </c>
+      <c r="M42" t="s">
+        <v>62</v>
+      </c>
       <c r="N42" s="2">
         <v>12188.7159686088</v>
       </c>
@@ -3139,6 +3270,9 @@
       <c r="L43" s="2">
         <v>14580679.6585536</v>
       </c>
+      <c r="M43" t="s">
+        <v>63</v>
+      </c>
       <c r="N43" s="2">
         <v>14270694.0730328</v>
       </c>
@@ -3189,6 +3323,9 @@
       <c r="L44" s="2">
         <v>14512468.230009001</v>
       </c>
+      <c r="M44" t="s">
+        <v>64</v>
+      </c>
       <c r="N44" s="2">
         <v>14404173.2281231</v>
       </c>
@@ -3239,6 +3376,9 @@
       <c r="L45" s="2">
         <v>14299103.314080199</v>
       </c>
+      <c r="M45" t="s">
+        <v>65</v>
+      </c>
       <c r="N45" s="2">
         <v>14429170.963355999</v>
       </c>
@@ -3289,6 +3429,9 @@
       <c r="L46" s="2">
         <v>14599501.6005976</v>
       </c>
+      <c r="M46" t="s">
+        <v>66</v>
+      </c>
       <c r="N46" s="2">
         <v>14184851.306275999</v>
       </c>
@@ -3339,6 +3482,9 @@
       <c r="L47" s="2">
         <v>2127752.4766616798</v>
       </c>
+      <c r="M47" t="s">
+        <v>67</v>
+      </c>
       <c r="N47" s="2">
         <v>797824.91620445205</v>
       </c>
@@ -3389,6 +3535,9 @@
       <c r="L48" s="2">
         <v>1265287.1981711299</v>
       </c>
+      <c r="M48" t="s">
+        <v>68</v>
+      </c>
       <c r="N48" s="2">
         <v>1271213.0330302699</v>
       </c>
@@ -3439,6 +3588,9 @@
       <c r="L49" s="2">
         <v>333258.64202737802</v>
       </c>
+      <c r="M49" t="s">
+        <v>69</v>
+      </c>
       <c r="N49" s="2">
         <v>47737.440372466997</v>
       </c>
@@ -3489,6 +3641,9 @@
       <c r="L50" s="2">
         <v>116694.230079174</v>
       </c>
+      <c r="M50" t="s">
+        <v>70</v>
+      </c>
       <c r="N50" s="2">
         <v>34025.090149641001</v>
       </c>
@@ -3539,6 +3694,9 @@
       <c r="L51" s="2">
         <v>304526.057572841</v>
       </c>
+      <c r="M51" t="s">
+        <v>71</v>
+      </c>
       <c r="N51" s="2">
         <v>18224.639079570701</v>
       </c>
@@ -3589,6 +3747,9 @@
       <c r="L52" s="2">
         <v>14431800.372791201</v>
       </c>
+      <c r="M52" t="s">
+        <v>72</v>
+      </c>
       <c r="N52" s="2">
         <v>14376337.4980282</v>
       </c>
@@ -3639,6 +3800,9 @@
       <c r="L53" s="2">
         <v>14452644.299483299</v>
       </c>
+      <c r="M53" t="s">
+        <v>73</v>
+      </c>
       <c r="N53" s="2">
         <v>14539764.5442426</v>
       </c>
@@ -3689,6 +3853,9 @@
       <c r="L54" s="2">
         <v>14146098.877553901</v>
       </c>
+      <c r="M54" t="s">
+        <v>74</v>
+      </c>
       <c r="N54" s="2">
         <v>14224007.4468922</v>
       </c>
@@ -3739,6 +3906,9 @@
       <c r="L55" s="2">
         <v>14495771.289668299</v>
       </c>
+      <c r="M55" t="s">
+        <v>75</v>
+      </c>
       <c r="N55" s="2">
         <v>14250132.826595999</v>
       </c>
@@ -3789,6 +3959,9 @@
       <c r="L56" s="2">
         <v>1407764.84424614</v>
       </c>
+      <c r="M56" t="s">
+        <v>76</v>
+      </c>
       <c r="N56" s="2">
         <v>2357781.6169068799</v>
       </c>
@@ -3839,6 +4012,9 @@
       <c r="L57" s="2">
         <v>2132828.7865633899</v>
       </c>
+      <c r="M57" t="s">
+        <v>77</v>
+      </c>
       <c r="N57" s="2">
         <v>311710.667388439</v>
       </c>
@@ -3889,6 +4065,9 @@
       <c r="L58" s="2">
         <v>807945.46316766704</v>
       </c>
+      <c r="M58" t="s">
+        <v>78</v>
+      </c>
       <c r="N58" s="2">
         <v>520497.62519145</v>
       </c>
@@ -3939,6 +4118,9 @@
       <c r="L59" s="2">
         <v>511816.59870195301</v>
       </c>
+      <c r="M59" t="s">
+        <v>79</v>
+      </c>
       <c r="N59" s="2">
         <v>42615.924486637101</v>
       </c>
@@ -3989,6 +4171,9 @@
       <c r="L60" s="2">
         <v>657926.33290076198</v>
       </c>
+      <c r="M60" t="s">
+        <v>80</v>
+      </c>
       <c r="N60" s="2">
         <v>13035.928580760899</v>
       </c>
@@ -4039,6 +4224,9 @@
       <c r="L61" s="2">
         <v>14977401.740024</v>
       </c>
+      <c r="M61" t="s">
+        <v>81</v>
+      </c>
       <c r="N61" s="2">
         <v>14308458.0498337</v>
       </c>
@@ -4089,6 +4277,9 @@
       <c r="L62" s="2">
         <v>14152547.6479029</v>
       </c>
+      <c r="M62" t="s">
+        <v>82</v>
+      </c>
       <c r="N62" s="2">
         <v>14571228.8926744</v>
       </c>
@@ -4139,6 +4330,9 @@
       <c r="L63" s="2">
         <v>14534673.9591431</v>
       </c>
+      <c r="M63" t="s">
+        <v>83</v>
+      </c>
       <c r="N63" s="2">
         <v>14395665.800578499</v>
       </c>
@@ -4189,6 +4383,9 @@
       <c r="L64" s="2">
         <v>14649820.7529778</v>
       </c>
+      <c r="M64" t="s">
+        <v>84</v>
+      </c>
       <c r="N64" s="2">
         <v>14280257.4169585</v>
       </c>
@@ -4239,6 +4436,9 @@
       <c r="L65" s="2">
         <v>1339529.3148922899</v>
       </c>
+      <c r="M65" t="s">
+        <v>85</v>
+      </c>
       <c r="N65" s="2">
         <v>993245.33236217499</v>
       </c>
@@ -4289,6 +4489,9 @@
       <c r="L66" s="2">
         <v>2827746.0400958001</v>
       </c>
+      <c r="M66" t="s">
+        <v>86</v>
+      </c>
       <c r="N66" s="2">
         <v>709530.14867258002</v>
       </c>
@@ -4339,6 +4542,9 @@
       <c r="L67" s="2">
         <v>706022.87388324703</v>
       </c>
+      <c r="M67" t="s">
+        <v>87</v>
+      </c>
       <c r="N67" s="2">
         <v>266234.01477813697</v>
       </c>
@@ -4389,6 +4595,9 @@
       <c r="L68" s="2">
         <v>790570.785119295</v>
       </c>
+      <c r="M68" t="s">
+        <v>88</v>
+      </c>
       <c r="N68" s="2">
         <v>22509.451866388299</v>
       </c>
@@ -4439,6 +4648,9 @@
       <c r="L69" s="2">
         <v>227212.74210548401</v>
       </c>
+      <c r="M69" t="s">
+        <v>89</v>
+      </c>
       <c r="N69" s="2">
         <v>18364.900673627799</v>
       </c>
@@ -4489,6 +4701,9 @@
       <c r="L70" s="2">
         <v>14633700.1018047</v>
       </c>
+      <c r="M70" t="s">
+        <v>90</v>
+      </c>
       <c r="N70" s="2">
         <v>14658452.637601599</v>
       </c>
@@ -4539,6 +4754,9 @@
       <c r="L71" s="2">
         <v>14312152.1636786</v>
       </c>
+      <c r="M71" t="s">
+        <v>91</v>
+      </c>
       <c r="N71" s="2">
         <v>14676037.048788</v>
       </c>
@@ -4589,6 +4807,9 @@
       <c r="L72" s="2">
         <v>14797322.384136399</v>
       </c>
+      <c r="M72" t="s">
+        <v>92</v>
+      </c>
       <c r="N72" s="2">
         <v>14320333.988470299</v>
       </c>
@@ -4639,6 +4860,9 @@
       <c r="L73" s="2">
         <v>14314208.224911399</v>
       </c>
+      <c r="M73" t="s">
+        <v>93</v>
+      </c>
       <c r="N73" s="2">
         <v>14387932.0187573</v>
       </c>
@@ -4689,19 +4913,22 @@
       <c r="L74" s="2">
         <v>487370.21003437001</v>
       </c>
-      <c r="N74" s="2">
+      <c r="M74" t="s">
+        <v>94</v>
+      </c>
+      <c r="N74" s="4">
         <v>1776862.4875426199</v>
       </c>
-      <c r="O74" s="2">
+      <c r="O74" s="4">
         <v>847021.38236165</v>
       </c>
-      <c r="P74" s="2">
+      <c r="P74" s="4">
         <v>221432.85391211501</v>
       </c>
-      <c r="Q74" s="2">
+      <c r="Q74" s="4">
         <v>365907.43313193298</v>
       </c>
-      <c r="R74" s="2">
+      <c r="R74" s="4">
         <v>349012.30867981899</v>
       </c>
     </row>
@@ -4739,19 +4966,22 @@
       <c r="L75" s="2">
         <v>720832.14909458102</v>
       </c>
-      <c r="N75" s="2">
+      <c r="M75" t="s">
+        <v>95</v>
+      </c>
+      <c r="N75" s="4">
         <v>294166.08298778499</v>
       </c>
-      <c r="O75" s="2">
+      <c r="O75" s="4">
         <v>706444.19352626801</v>
       </c>
-      <c r="P75" s="2">
+      <c r="P75" s="4">
         <v>1046943.38296985</v>
       </c>
-      <c r="Q75" s="2">
+      <c r="Q75" s="4">
         <v>388716.731028318</v>
       </c>
-      <c r="R75" s="2">
+      <c r="R75" s="4">
         <v>724950.17589449801</v>
       </c>
     </row>
@@ -4789,19 +5019,22 @@
       <c r="L76" s="2">
         <v>281330.57795810699</v>
       </c>
-      <c r="N76" s="2">
+      <c r="M76" t="s">
+        <v>96</v>
+      </c>
+      <c r="N76" s="4">
         <v>76747.708421468706</v>
       </c>
-      <c r="O76" s="2">
+      <c r="O76" s="4">
         <v>1795963.98002624</v>
       </c>
-      <c r="P76" s="2">
+      <c r="P76" s="4">
         <v>279494.18260097498</v>
       </c>
-      <c r="Q76" s="2">
+      <c r="Q76" s="4">
         <v>506045.85167908599</v>
       </c>
-      <c r="R76" s="2">
+      <c r="R76" s="4">
         <v>150425.78444790799</v>
       </c>
     </row>
@@ -4839,19 +5072,22 @@
       <c r="L77" s="2">
         <v>691275.54479098297</v>
       </c>
-      <c r="N77" s="2">
+      <c r="M77" t="s">
+        <v>97</v>
+      </c>
+      <c r="N77" s="4">
         <v>18817.713801145499</v>
       </c>
-      <c r="O77" s="2">
+      <c r="O77" s="4">
         <v>26656.360039710999</v>
       </c>
-      <c r="P77" s="2">
+      <c r="P77" s="4">
         <v>29974.688167333599</v>
       </c>
-      <c r="Q77" s="2">
+      <c r="Q77" s="4">
         <v>41634.324055194797</v>
       </c>
-      <c r="R77" s="2">
+      <c r="R77" s="4">
         <v>41078.938884258198</v>
       </c>
     </row>
@@ -4889,19 +5125,22 @@
       <c r="L78" s="2">
         <v>487300.74707007402</v>
       </c>
-      <c r="N78" s="2">
+      <c r="M78" t="s">
+        <v>98</v>
+      </c>
+      <c r="N78" s="4">
         <v>19081.363574981599</v>
       </c>
-      <c r="O78" s="2">
+      <c r="O78" s="4">
         <v>8650.42298793792</v>
       </c>
-      <c r="P78" s="2">
+      <c r="P78" s="4">
         <v>20459.6430115699</v>
       </c>
-      <c r="Q78" s="2">
+      <c r="Q78" s="4">
         <v>20025.622015714602</v>
       </c>
-      <c r="R78" s="2">
+      <c r="R78" s="4">
         <v>20930.422040223999</v>
       </c>
     </row>
@@ -4939,19 +5178,22 @@
       <c r="L79" s="2">
         <v>14794300.1998662</v>
       </c>
-      <c r="N79" s="2">
+      <c r="M79" t="s">
+        <v>99</v>
+      </c>
+      <c r="N79" s="4">
         <v>14217248.314435</v>
       </c>
-      <c r="O79" s="2">
+      <c r="O79" s="4">
         <v>14743397.6683707</v>
       </c>
-      <c r="P79" s="2">
+      <c r="P79" s="4">
         <v>14455079.310472</v>
       </c>
-      <c r="Q79" s="2">
+      <c r="Q79" s="4">
         <v>14602517.7747893</v>
       </c>
-      <c r="R79" s="2">
+      <c r="R79" s="4">
         <v>15006172.1340346</v>
       </c>
     </row>
@@ -4989,19 +5231,22 @@
       <c r="L80" s="2">
         <v>14133750.730113201</v>
       </c>
-      <c r="N80" s="2">
+      <c r="M80" t="s">
+        <v>100</v>
+      </c>
+      <c r="N80" s="4">
         <v>14747029.142622899</v>
       </c>
-      <c r="O80" s="2">
+      <c r="O80" s="4">
         <v>14350558.530959999</v>
       </c>
-      <c r="P80" s="2">
+      <c r="P80" s="4">
         <v>14432257.749459701</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="Q80" s="4">
         <v>14150028.035963001</v>
       </c>
-      <c r="R80" s="2">
+      <c r="R80" s="4">
         <v>14641166.501940001</v>
       </c>
     </row>
@@ -5039,19 +5284,22 @@
       <c r="L81" s="2">
         <v>14536218.732470499</v>
       </c>
-      <c r="N81" s="2">
+      <c r="M81" t="s">
+        <v>101</v>
+      </c>
+      <c r="N81" s="4">
         <v>14861228.5136561</v>
       </c>
-      <c r="O81" s="2">
+      <c r="O81" s="4">
         <v>14297668.542478999</v>
       </c>
-      <c r="P81" s="2">
+      <c r="P81" s="4">
         <v>14460162.2109675</v>
       </c>
-      <c r="Q81" s="2">
+      <c r="Q81" s="4">
         <v>14359883.890259201</v>
       </c>
-      <c r="R81" s="2">
+      <c r="R81" s="4">
         <v>14526052.9776513</v>
       </c>
     </row>
@@ -5089,19 +5337,22 @@
       <c r="L82" s="2">
         <v>14651219.351432299</v>
       </c>
-      <c r="N82" s="2">
+      <c r="M82" t="s">
+        <v>102</v>
+      </c>
+      <c r="N82" s="4">
         <v>14283947.931190901</v>
       </c>
-      <c r="O82" s="2">
+      <c r="O82" s="4">
         <v>14392843.394277001</v>
       </c>
-      <c r="P82" s="2">
+      <c r="P82" s="4">
         <v>14416040.3510928</v>
       </c>
-      <c r="Q82" s="2">
+      <c r="Q82" s="4">
         <v>14251126.3519048</v>
       </c>
-      <c r="R82" s="2">
+      <c r="R82" s="4">
         <v>14822849.7415254</v>
       </c>
     </row>
@@ -5153,9 +5404,8 @@
         <f t="shared" si="0"/>
         <v>6793462.9709873274</v>
       </c>
-      <c r="M84" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="M84" t="s">
+        <v>133</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" si="0"/>
@@ -5190,7 +5440,6 @@
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85"/>
-      <c r="M85"/>
       <c r="N85"/>
       <c r="O85"/>
       <c r="P85"/>
@@ -5219,7 +5468,6 @@
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86"/>
-      <c r="M86"/>
       <c r="N86"/>
       <c r="O86"/>
       <c r="P86"/>
@@ -5227,23 +5475,23 @@
       <c r="R86"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="B87" s="3">
+      <c r="B87" s="1">
         <f>AVERAGE(B84+H84+N84)</f>
         <v>20601001.65803558</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="1">
         <f t="shared" ref="C87:F87" si="1">AVERAGE(C84+I84+O84)</f>
         <v>20658253.76207928</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="1">
         <f t="shared" si="1"/>
         <v>20353908.45263822</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="1">
         <f t="shared" si="1"/>
         <v>20505493.014411509</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="1">
         <f t="shared" si="1"/>
         <v>20238583.414805472</v>
       </c>
@@ -5253,12 +5501,18 @@
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
-      <c r="M87"/>
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
       <c r="R87"/>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B87:F87">
@@ -5272,14 +5526,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD87"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="2.375" customWidth="1"/>
     <col min="8" max="12" width="14.625" customWidth="1"/>
     <col min="13" max="13" width="2.875" customWidth="1"/>
@@ -9477,23 +9735,23 @@
       </c>
     </row>
     <row r="87" spans="1:18">
-      <c r="B87" s="3">
+      <c r="B87" s="1">
         <f>AVERAGE(B84+H84+N84)</f>
         <v>584864340.86240649</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="1">
         <f t="shared" ref="C87:F87" si="1">AVERAGE(C84+I84+O84)</f>
         <v>401827006.60733223</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="1">
         <f t="shared" si="1"/>
         <v>361376755.11237752</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="1">
         <f t="shared" si="1"/>
         <v>240206908.41703886</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="1">
         <f t="shared" si="1"/>
         <v>24619860.121902484</v>
       </c>
@@ -9510,14 +9768,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD87"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="4.25" customWidth="1"/>
     <col min="8" max="12" width="14.625" customWidth="1"/>
     <col min="13" max="13" width="2.625" customWidth="1"/>
@@ -13715,23 +13977,23 @@
       </c>
     </row>
     <row r="87" spans="1:18">
-      <c r="B87" s="3">
+      <c r="B87" s="1">
         <f>AVERAGE(B84+H84+N84)</f>
         <v>2169121.9862552686</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="1">
         <f t="shared" ref="C87:F87" si="1">AVERAGE(C84+I84+O84)</f>
         <v>11327140.456637703</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="1">
         <f t="shared" si="1"/>
         <v>16738149.340076663</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="1">
         <f t="shared" si="1"/>
         <v>17859002.020864271</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="1">
         <f t="shared" si="1"/>
         <v>16110418.106213935</v>
       </c>
